--- a/기획서/프로토타입_UI 전체 기획서.xlsx
+++ b/기획서/프로토타입_UI 전체 기획서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김동열\Documents\MiniProjectDocu\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBFB9A6E-15E2-4C95-A22D-A4598C04A7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7728864D-E21A-4862-BD4C-6E85C226CBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5894,7 +5894,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
